--- a/src/test/resources/testdata/FlowInterface.xlsx
+++ b/src/test/resources/testdata/FlowInterface.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\NewFramework_Appium\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1977080C-0828-4E0A-9DBF-F638E285B773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6895DD-3EFD-421E-B020-0E0285607497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -825,6 +825,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005C83CA1A5F4AE4C9BEF6454A5CBD615" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec7417affe12c862527167136ce573ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xmlns:ns4="e178c8a6-526e-465c-b240-e7ca9adf772c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3e517818b1b2821051a10e8ea2fc5c" ns3:_="" ns4:_="">
     <xsd:import namespace="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
@@ -1057,24 +1074,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B973315-B0F0-4CE1-9BD5-E731C7EF6E1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1091,22 +1109,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/FlowInterface.xlsx
+++ b/src/test/resources/testdata/FlowInterface.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium - CopyPractice\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6895DD-3EFD-421E-B020-0E0285607497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E2CC0-3F3E-49C2-BCA7-BED8E19FCEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>ecom2</t>
+  </si>
+  <si>
+    <t>Mobile1.xlsx</t>
+  </si>
+  <si>
+    <t>As a User I should be able to register</t>
+  </si>
+  <si>
+    <t>As a User I should be able to login with valid credentials</t>
+  </si>
+  <si>
+    <t>Ecom App Register</t>
+  </si>
+  <si>
+    <t>Ecom App Login valid Credential</t>
+  </si>
+  <si>
+    <t>Ecom App Login invalid Credential</t>
+  </si>
+  <si>
+    <t>As a User I should be able to login with invalid credentials</t>
+  </si>
+  <si>
+    <t>smoke2</t>
   </si>
 </sst>
 </file>
@@ -518,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77993-C7EC-411C-A1DE-F48C8A198BE7}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -693,8 +717,68 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F8">
+  <conditionalFormatting sqref="F2:F11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -703,7 +787,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{35B026BD-6EE7-48A0-BC42-F6500A128D12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{35B026BD-6EE7-48A0-BC42-F6500A128D12}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -825,14 +909,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -841,7 +917,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005C83CA1A5F4AE4C9BEF6454A5CBD615" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec7417affe12c862527167136ce573ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xmlns:ns4="e178c8a6-526e-465c-b240-e7ca9adf772c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3e517818b1b2821051a10e8ea2fc5c" ns3:_="" ns4:_="">
     <xsd:import namespace="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
@@ -1074,17 +1150,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1092,7 +1166,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B973315-B0F0-4CE1-9BD5-E731C7EF6E1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1109,4 +1183,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>